--- a/Companies/Automobile - Passenger Cars/Maruti Suzuki India Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Automobile - Passenger Cars/Maruti Suzuki India Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '14</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>10,211.83</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10,619.68</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11,818.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11,073.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>11,996.33</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11,073.51</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11,818.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10,619.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10,211.83</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>11996.33</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>10211.83</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>11143.896</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>256.23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>274.16</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>283.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>296.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>307.45</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>296.13</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>283.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>274.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>256.23</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>307.45</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>256.23</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>283.446</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>10,468.06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10,893.84</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12,101.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11,369.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>12,303.78</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>11,369.64</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12,101.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10,893.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10,468.06</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>12303.78</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>10468.06</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>11427.342</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>6,896.79</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7,020.36</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8,066.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7,702.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>8,566.99</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7,702.09</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8,066.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7,020.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6,896.79</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>8566.99</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>6896.79</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>7650.51</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>598.09</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>617.62</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>651.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>630.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>695.31</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>630.26</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>651.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>617.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>598.09</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>695.3099999999999</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>598.09</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>638.582</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-230.52</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>163.40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>160.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-148.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-487.44</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-148.04</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>160.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>163.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-230.52</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>163.4</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-487.44</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-108.46</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>372.33</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>299.66</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>401.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>353.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>369.82</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>353.51</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>401.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>299.66</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>372.33</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>401.01</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>299.66</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>359.266</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>499.17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>541.38</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>563.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>583.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>598.85</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>583.64</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>563.69</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>541.38</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>499.17</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>598.85</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>499.17</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>557.346</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,509.94</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,438.01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,574.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,503.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,638.26</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,503.62</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,574.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,438.01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,509.94</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1638.26</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1438.01</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1532.886</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>822.26</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>813.41</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>683.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>744.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>921.99</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>744.56</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>683.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>813.41</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>822.26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>921.99</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>683.84</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>797.212</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>101.02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>116.95</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>406.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>296.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>193.25</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>296.53</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>406.62</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>116.95</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>101.02</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>406.62</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>101.02</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>222.874</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>923.28</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>930.36</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,090.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,041.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,115.24</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,041.09</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,090.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>930.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>923.28</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1115.24</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>923.28</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1020.086</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>43.39</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>44.80</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>34.79</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>38.55</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>43.43</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>44.80</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>43.39</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>34.79</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>40.992</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>879.89</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>885.56</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1,047.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,002.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,080.45</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1,002.54</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1,047.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>885.56</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>879.89</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1080.45</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>879.89</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>979.0940000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>879.89</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>885.56</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,047.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,002.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,080.45</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,002.54</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,047.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>885.56</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>879.89</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1080.45</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>879.89</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>979.0940000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>209.66</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>204.41</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>246.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>240.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>217.91</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>240.26</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>246.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>204.41</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>209.66</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>246.98</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>204.41</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>223.844</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>670.23</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>681.15</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>800.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>762.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>862.54</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>762.28</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>800.05</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>681.15</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>670.23</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>862.54</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>670.23</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>755.25</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>670.23</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>681.15</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>800.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>762.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>862.54</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>762.28</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>800.05</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>681.15</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>670.23</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>862.54</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>670.23</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>755.25</v>
       </c>
     </row>
     <row r="22">
@@ -1273,15 +1088,6 @@
           <t>151.04</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>151.04</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>151.04</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>151.04</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1313,15 +1119,6 @@
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>240</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>28.55</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>25.23</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>26.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>22.19</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>28.55</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>25.23</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>26.48</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>22.19</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>28.55</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>25.23</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>26.48</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>22.19</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>28.55</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>25.23</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>26.48</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>22.19</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="32"/>
@@ -1543,15 +1304,6 @@
           <t>13.23</t>
         </is>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>13.23</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1583,15 +1335,6 @@
         <is>
           <t>43.79</t>
         </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>43.79</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>43.79</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>43.79</v>
       </c>
     </row>
     <row r="36"/>
@@ -1649,15 +1392,6 @@
           <t>16.98</t>
         </is>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>16.98</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1690,15 +1424,6 @@
           <t>100.00</t>
         </is>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1730,15 +1455,6 @@
         <is>
           <t>56.21</t>
         </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>56.21</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>56.21</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>56.21</v>
       </c>
     </row>
   </sheetData>
